--- a/src/SC.ServerRoleChecker.UI/Configurations/Config Enable-Disable Sitecore_8.2 Update1.xlsx
+++ b/src/SC.ServerRoleChecker.UI/Configurations/Config Enable-Disable Sitecore_8.2 Update1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\Sandbox\SC.ServerRoleChecker\csv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Workspace\Sandbox\Sitecore-Server-Role-Checker\src\SC.ServerRoleChecker.UI\Configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1180,7 +1180,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,10 +1546,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D10" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D10" sqref="D10"/>
-      <selection pane="bottomLeft" activeCell="K124" sqref="K124"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1670,19 +1670,19 @@
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.35">
@@ -9139,6 +9139,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C8BC4C13175EE44A8464A1913F107AE1" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7f86f18dbd93e6ce50c45a79d46751e4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -9252,12 +9258,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -9268,6 +9268,21 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D3201F7-3214-427A-A0C2-8766B463853E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8B2D913-87D9-4DED-AA8F-C87EAA873038}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9283,21 +9298,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D3201F7-3214-427A-A0C2-8766B463853E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{88122764-4D4F-4193-B69A-B531FE34FD56}">
   <ds:schemaRefs>
